--- a/results/I3_N5_M2_T30_C150_DepCentral_s0_P2_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1837.063652301016</v>
+        <v>1322.041957420743</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.25725746793465</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.370503878367851</v>
+        <v>4.799020687881951</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.046898711441829</v>
+        <v>3.78329414108774</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1326.690000000008</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.4400000000001</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,20 +631,9 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -934,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.500107941581813</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>29.16274257244261</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.72327375283629</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.49989205841819</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1026,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1040,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1054,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1071,10 +1060,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1085,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1096,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1110,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1124,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1138,15 +1127,29 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1249,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>138.4050000000004</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -1260,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.36</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -1271,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>162.115</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -1282,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>164.315</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -1293,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>160.24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -1304,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>249.8050000000012</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
@@ -1315,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>278.4250000000008</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
@@ -1326,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>278.8300000000008</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
@@ -1337,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>289.5250000000008</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16">
@@ -1348,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>282.8700000000008</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
@@ -1359,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>156.56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1370,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>153.25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1381,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -1392,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>156.73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -1403,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>155.9399999999993</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1414,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1425,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1436,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.26000000000001</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1447,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1458,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1469,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999979</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -1480,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999978</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
@@ -1491,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999978</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -1502,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999977</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
@@ -1513,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999977</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
@@ -1524,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>249.8050000000012</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -1535,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>278.4250000000008</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
@@ -1546,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>278.8300000000008</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35">
@@ -1557,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>289.5250000000008</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -1568,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>282.8700000000008</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
@@ -1579,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>156.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1590,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1601,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1612,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1623,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>155.9399999999993</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>99.80500000000123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
@@ -1681,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>128.4250000000008</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -1692,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>128.8300000000008</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -1703,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>139.5250000000008</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -1714,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>132.8700000000008</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -1725,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.560000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1736,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1747,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1758,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.72999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1769,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.939999999999344</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1937,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1948,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1959,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1970,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1981,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1992,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2003,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -2014,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2025,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2036,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2047,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2058,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2069,7 +2072,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2080,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2124,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2132,10 +2135,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2143,10 +2146,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2154,10 +2157,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2168,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2179,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2187,10 +2190,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2198,10 +2201,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2209,10 +2212,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2220,10 +2223,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2231,45 +2234,12 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
